--- a/Validação-SENAI_HROADS_Sprint1_BD.xlsx
+++ b/Validação-SENAI_HROADS_Sprint1_BD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35711103822\Desktop\HRoads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28725446827\Desktop\SENAI_HOADS_TARDE_Sprint1_BD-Mateus_Daniel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Personagens</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Ataque</t>
   </si>
   <si>
-    <t>Caçador de Demônios</t>
-  </si>
-  <si>
     <t>ID_Habilidade</t>
   </si>
   <si>
@@ -93,13 +90,52 @@
   </si>
   <si>
     <t>Nome_Tipo</t>
+  </si>
+  <si>
+    <t>BitBug</t>
+  </si>
+  <si>
+    <t>Fer8</t>
+  </si>
+  <si>
+    <t>Cruzado</t>
+  </si>
+  <si>
+    <t>Caçadora de Demônios</t>
+  </si>
+  <si>
+    <t>Monge</t>
+  </si>
+  <si>
+    <t>Necromante</t>
+  </si>
+  <si>
+    <t>Feiticeiro</t>
+  </si>
+  <si>
+    <t>Arcanista</t>
+  </si>
+  <si>
+    <t>Escudo Supremo</t>
+  </si>
+  <si>
+    <t>Recuperar Vida</t>
+  </si>
+  <si>
+    <t>Defesa</t>
+  </si>
+  <si>
+    <t>Cura</t>
+  </si>
+  <si>
+    <t>Magia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,15 +144,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -242,24 +293,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,175 +604,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43118</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="G5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
+      <c r="F22" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
